--- a/Civilworks cost/RADP Preparations/Sunamgonj/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Sunamgonj/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -14537,8 +14537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14740,7 +14740,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26653,8 +26653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:G23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Civilworks cost/RADP Preparations/Sunamgonj/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP Preparations/Sunamgonj/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -26653,7 +26653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -28620,8 +28620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
